--- a/uploads/Book2.xlsx
+++ b/uploads/Book2.xlsx
@@ -24,21 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sahdgr</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>cv</t>
+    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -356,34 +347,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>140</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
